--- a/biology/Zoologie/Michael_Archer/Michael_Archer.xlsx
+++ b/biology/Zoologie/Michael_Archer/Michael_Archer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mikael (Mike) Archer AM, né en 1945 à Sydney, est un zoologiste australo-américain. Il est spécialiste des vertébrés fossiles ou modernes.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son Bachelor of Arts en géologie et biologie à l’université de Princeton en 1967 et son doctorat en 1976 à l’université d'Australie-Occidentale. Il commence à travailler au Western Australian Museum de 1967 à 1971. Il est conservateur des mammifères au Queensland Museum de 1972 à 1978. Il enseigne à l’université de Nouvelle-Galles-du-Sud de 1978 à aujourd’hui. Il devient doyen de cet établissement en 2003.
 Un minéral, l'archerite, a été nommé en son honneur. Il est en effet le découvreur de la grotte Petrogale où l'archerite a été trouvée.
